--- a/sofaplayer/La_Liga/Celta Vigo_stats.xlsx
+++ b/sofaplayer/La_Liga/Celta Vigo_stats.xlsx
@@ -1053,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.9961</v>
+        <v>2.9674</v>
       </c>
       <c r="L2" t="n">
         <v>398</v>
@@ -1101,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.51345168</v>
+        <v>2.51345178</v>
       </c>
       <c r="AB2" t="n">
         <v>599</v>
@@ -1263,10 +1263,10 @@
         <v>11</v>
       </c>
       <c r="CC2" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CD2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>7.9866</v>
+        <v>7.9026</v>
       </c>
       <c r="L3" t="n">
         <v>132.3</v>
@@ -1765,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3599</v>
+        <v>3.3068</v>
       </c>
       <c r="L4" t="n">
         <v>274.33333333333</v>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.91501559</v>
+        <v>0.91515219</v>
       </c>
       <c r="AB4" t="n">
         <v>341</v>
@@ -1828,10 +1828,10 @@
         <v>158</v>
       </c>
       <c r="AF4" t="n">
-        <v>77.45098039215701</v>
+        <v>77.07317073170699</v>
       </c>
       <c r="AG4" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AH4" t="n">
         <v>59</v>
@@ -1909,7 +1909,7 @@
         <v>31.034482758621</v>
       </c>
       <c r="BG4" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BH4" t="n">
         <v>9</v>
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="BT4" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>78</v>
       </c>
       <c r="DG4" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.8202</v>
+        <v>2.7085</v>
       </c>
       <c r="L5" t="n">
         <v>463</v>
@@ -2172,7 +2172,7 @@
         <v>1.04483314</v>
       </c>
       <c r="AB5" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AC5" t="n">
         <v>2</v>
@@ -2250,13 +2250,13 @@
         <v>32</v>
       </c>
       <c r="BB5" t="n">
-        <v>36.363636363636</v>
+        <v>36.781609195402</v>
       </c>
       <c r="BC5" t="n">
         <v>22</v>
       </c>
       <c r="BD5" t="n">
-        <v>32.835820895522</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BE5" t="n">
         <v>10</v>
@@ -2265,7 +2265,7 @@
         <v>47.619047619048</v>
       </c>
       <c r="BG5" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BH5" t="n">
         <v>12</v>
@@ -2328,7 +2328,7 @@
         <v>4</v>
       </c>
       <c r="CB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CC5" t="n">
         <v>14</v>
@@ -2385,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="CU5" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CV5" t="n">
         <v>11</v>
@@ -2525,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.28667856</v>
+        <v>1.28663682</v>
       </c>
       <c r="AB6" t="n">
         <v>920</v>
@@ -2546,10 +2546,10 @@
         <v>636</v>
       </c>
       <c r="AH6" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AI6" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ6" t="n">
         <v>136</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="DG6" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.675</v>
+        <v>2.6759</v>
       </c>
       <c r="L7" t="n">
         <v>235.66666666667</v>
@@ -2881,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.51705869</v>
+        <v>0.52050959</v>
       </c>
       <c r="AB7" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>42.857142857143</v>
+        <v>46.666666666667</v>
       </c>
       <c r="BA7" t="n">
+        <v>47</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>43.92523364486</v>
+      </c>
+      <c r="BC7" t="n">
         <v>46</v>
       </c>
-      <c r="BB7" t="n">
-        <v>43.396226415094</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>45</v>
-      </c>
       <c r="BD7" t="n">
-        <v>46.39175257732</v>
+        <v>46.938775510204</v>
       </c>
       <c r="BE7" t="n">
         <v>1</v>
@@ -3091,7 +3091,7 @@
         <v>3</v>
       </c>
       <c r="CS7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CT7" t="n">
         <v>6</v>
@@ -3237,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.1953158</v>
+        <v>3.2078558</v>
       </c>
       <c r="AB8" t="n">
         <v>1154</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.08677459999999999</v>
+        <v>0.0333936</v>
       </c>
       <c r="AB10" t="n">
         <v>14</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD10" t="n">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.1974327</v>
+        <v>0.2648505</v>
       </c>
       <c r="AB11" t="n">
         <v>181</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX11" t="n">
         <v>0</v>
@@ -5321,7 +5321,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>1.3317</v>
+        <v>1.3205</v>
       </c>
       <c r="L14" t="n">
         <v>822.5</v>
@@ -5369,10 +5369,10 @@
         <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.04319007</v>
+        <v>1.05067907</v>
       </c>
       <c r="AB14" t="n">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -5384,10 +5384,10 @@
         <v>793</v>
       </c>
       <c r="AF14" t="n">
-        <v>85.915492957746</v>
+        <v>86.00867678958799</v>
       </c>
       <c r="AG14" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AH14" t="n">
         <v>394</v>
@@ -5408,10 +5408,10 @@
         <v>2</v>
       </c>
       <c r="AN14" t="n">
-        <v>11.111111111111</v>
+        <v>11.764705882353</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP14" t="n">
         <v>26</v>
@@ -5426,7 +5426,7 @@
         <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -5465,7 +5465,7 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG14" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BH14" t="n">
         <v>12</v>
@@ -5504,7 +5504,7 @@
         <v>3</v>
       </c>
       <c r="BT14" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5582,7 +5582,7 @@
         <v>32</v>
       </c>
       <c r="CT14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CU14" t="n">
         <v>62</v>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="DG14" t="n">
         <v>473</v>
@@ -5725,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.23458872</v>
+        <v>1.15789672</v>
       </c>
       <c r="AB15" t="n">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AC15" t="n">
         <v>4</v>
@@ -5737,16 +5737,16 @@
         <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF15" t="n">
-        <v>88.135593220339</v>
+        <v>88.155668358714</v>
       </c>
       <c r="AG15" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AH15" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI15" t="n">
         <v>291</v>
@@ -5770,7 +5770,7 @@
         <v>10</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ15" t="n">
         <v>4</v>
@@ -5779,7 +5779,7 @@
         <v>54</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
         <v>19</v>
@@ -5803,16 +5803,16 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB15" t="n">
-        <v>48.453608247423</v>
+        <v>47.422680412371</v>
       </c>
       <c r="BC15" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BD15" t="n">
-        <v>48.717948717949</v>
+        <v>47.435897435897</v>
       </c>
       <c r="BE15" t="n">
         <v>9</v>
@@ -5941,7 +5941,7 @@
         <v>15</v>
       </c>
       <c r="CU15" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CV15" t="n">
         <v>10</v>
@@ -5959,10 +5959,10 @@
         <v>67</v>
       </c>
       <c r="DA15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="DB15" t="n">
-        <v>65.384615384615</v>
+        <v>64</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5974,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="DG15" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1.9683</v>
+        <v>1.874</v>
       </c>
       <c r="L16" t="n">
         <v>1794</v>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.283156</v>
+        <v>1.307712</v>
       </c>
       <c r="AB16" t="n">
         <v>1846</v>
@@ -6096,10 +6096,10 @@
         <v>1375</v>
       </c>
       <c r="AF16" t="n">
-        <v>90.045841519319</v>
+        <v>90.104849279161</v>
       </c>
       <c r="AG16" t="n">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="AH16" t="n">
         <v>823</v>
@@ -6114,7 +6114,7 @@
         <v>85</v>
       </c>
       <c r="AL16" t="n">
-        <v>53.79746835443</v>
+        <v>54.140127388535</v>
       </c>
       <c r="AM16" t="n">
         <v>4</v>
@@ -6138,7 +6138,7 @@
         <v>11</v>
       </c>
       <c r="AT16" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AU16" t="n">
         <v>8</v>
@@ -6177,7 +6177,7 @@
         <v>58.490566037736</v>
       </c>
       <c r="BG16" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BH16" t="n">
         <v>13</v>
@@ -6216,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="DA16" t="n">
         <v>16</v>
@@ -6333,7 +6333,7 @@
         <v>858</v>
       </c>
       <c r="DG16" t="n">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="DH16" t="n">
         <v>7</v>
@@ -6793,10 +6793,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.10655706</v>
+        <v>0.10654326</v>
       </c>
       <c r="AB18" t="n">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6808,10 +6808,10 @@
         <v>861</v>
       </c>
       <c r="AF18" t="n">
-        <v>95.773081201335</v>
+        <v>95.879732739421</v>
       </c>
       <c r="AG18" t="n">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AH18" t="n">
         <v>655</v>
@@ -6850,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>50</v>
       </c>
       <c r="BA18" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BB18" t="n">
-        <v>55.789473684211</v>
+        <v>56.25</v>
       </c>
       <c r="BC18" t="n">
         <v>27</v>
@@ -6883,13 +6883,13 @@
         <v>56.25</v>
       </c>
       <c r="BE18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BF18" t="n">
-        <v>55.31914893617</v>
+        <v>56.25</v>
       </c>
       <c r="BG18" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BH18" t="n">
         <v>19</v>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="DG18" t="n">
         <v>221</v>
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.53785026</v>
+        <v>0.53790986</v>
       </c>
       <c r="AB19" t="n">
         <v>1320</v>
@@ -7383,10 +7383,10 @@
         <v>80</v>
       </c>
       <c r="DA19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DB19" t="n">
-        <v>65.384615384615</v>
+        <v>69.230769230769</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -8217,7 +8217,7 @@
         <v>4</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.09560444</v>
+        <v>2.14034944</v>
       </c>
       <c r="AB22" t="n">
         <v>562</v>
@@ -8229,16 +8229,16 @@
         <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF22" t="n">
-        <v>74.251497005988</v>
+        <v>74.174174174174</v>
       </c>
       <c r="AG22" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH22" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="n">
         <v>158</v>
@@ -8274,7 +8274,7 @@
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU22" t="n">
         <v>1</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DG22" t="n">
         <v>212</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.03342946</v>
+        <v>0.03342434</v>
       </c>
       <c r="AB26" t="n">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -9733,7 +9733,7 @@
         <v>100</v>
       </c>
       <c r="BG26" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BH26" t="n">
         <v>0</v>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="DL26" t="n">
-        <v>-1.1828</v>
+        <v>-0.5861</v>
       </c>
     </row>
   </sheetData>
